--- a/biology/Zoologie/Épervier_de_Cuba/Épervier_de_Cuba.xlsx
+++ b/biology/Zoologie/Épervier_de_Cuba/Épervier_de_Cuba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Cuba</t>
+          <t>Épervier_de_Cuba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter gundlachi
 L'Épervier de Cuba (Accipiter gundlachi), aussi appelé Épervier de Gundlach, est une espèce rare de rapaces endémique de l'île de Cuba.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Cuba</t>
+          <t>Épervier_de_Cuba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il préfère les zones boisées. Il se nourrit principalement d'oiseaux dont les volailles domestiques.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Cuba</t>
+          <t>Épervier_de_Cuba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Menace / protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épervier de Cuba est victime de la destruction de son habitat, et de la chasse car il est considéré comme nuisible pour l'élevage de volailles (piège, destruction de l'arbre où il fait son nid).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pervier_de_Cuba</t>
+          <t>Épervier_de_Cuba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des sous-espèces suivantes :
 Accipiter gundlachi gundlachi  Lawrence 1860
